--- a/result.xlsx
+++ b/result.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\cCode\memcpy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\cCode\neomemcpy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表3" sheetId="3" r:id="rId2"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
   <si>
     <t>Byte</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -54,6 +55,10 @@
     <t>forbyte</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>vmemcpy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -61,7 +66,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -120,7 +125,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2262,7 +2267,7 @@
         <v>2</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11:T11" si="1">H9/1024</f>
+        <f t="shared" ref="H11:O11" si="1">H9/1024</f>
         <v>4</v>
       </c>
       <c r="I11">
@@ -2376,19 +2381,270 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>64</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>128</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>256</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>512</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1024</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2048</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4096</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8192</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>16384</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>32768</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>65536</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>131072</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>262144</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>524288</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1048576</v>
+      </c>
+      <c r="B20">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2097152</v>
+      </c>
+      <c r="B21">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4194304</v>
+      </c>
+      <c r="B22">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>8388608</v>
+      </c>
+      <c r="B23">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>16777216</v>
+      </c>
+      <c r="B24">
+        <v>21002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>33554432</v>
+      </c>
+      <c r="B25">
+        <v>38002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>67108864</v>
+      </c>
+      <c r="B26">
+        <v>64004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>134217728</v>
+      </c>
+      <c r="B27">
+        <v>136008</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>268435456</v>
+      </c>
+      <c r="B28">
+        <v>253014</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>536870912</v>
+      </c>
+      <c r="B29">
+        <v>527030</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9" style="1"/>
+    <col min="2" max="5" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -2401,8 +2657,11 @@
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -2415,8 +2674,11 @@
       <c r="D2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>4</v>
       </c>
@@ -2429,8 +2691,11 @@
       <c r="D3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>8</v>
       </c>
@@ -2443,8 +2708,11 @@
       <c r="D4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>16</v>
       </c>
@@ -2457,8 +2725,11 @@
       <c r="D5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>32</v>
       </c>
@@ -2471,8 +2742,11 @@
       <c r="D6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>64</v>
       </c>
@@ -2485,8 +2759,11 @@
       <c r="D7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>128</v>
       </c>
@@ -2499,8 +2776,11 @@
       <c r="D8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>256</v>
       </c>
@@ -2513,8 +2793,11 @@
       <c r="D9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>512</v>
       </c>
@@ -2527,8 +2810,11 @@
       <c r="D10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1024</v>
       </c>
@@ -2541,8 +2827,11 @@
       <c r="D11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2048</v>
       </c>
@@ -2555,8 +2844,11 @@
       <c r="D12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>4096</v>
       </c>
@@ -2569,8 +2861,11 @@
       <c r="D13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>8192</v>
       </c>
@@ -2583,8 +2878,11 @@
       <c r="D14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>16384</v>
       </c>
@@ -2597,8 +2895,11 @@
       <c r="D15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>32768</v>
       </c>
@@ -2611,8 +2912,11 @@
       <c r="D16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>65536</v>
       </c>
@@ -2625,8 +2929,11 @@
       <c r="D17" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>131072</v>
       </c>
@@ -2639,8 +2946,11 @@
       <c r="D18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>262144</v>
       </c>
@@ -2653,8 +2963,11 @@
       <c r="D19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>524288</v>
       </c>
@@ -2667,8 +2980,11 @@
       <c r="D20" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1048576</v>
       </c>
@@ -2681,8 +2997,11 @@
       <c r="D21" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2097152</v>
       </c>
@@ -2695,8 +3014,11 @@
       <c r="D22" s="1">
         <v>2000</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>4194304</v>
       </c>
@@ -2709,8 +3031,11 @@
       <c r="D23" s="1">
         <v>7001</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="1">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>8388608</v>
       </c>
@@ -2723,8 +3048,11 @@
       <c r="D24" s="1">
         <v>14001</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>16777216</v>
       </c>
@@ -2737,8 +3065,11 @@
       <c r="D25" s="1">
         <v>17001</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="1">
+        <v>21002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>33554432</v>
       </c>
@@ -2751,8 +3082,11 @@
       <c r="D26" s="1">
         <v>55003</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="1">
+        <v>38002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>67108864</v>
       </c>
@@ -2765,8 +3099,11 @@
       <c r="D27" s="1">
         <v>68003</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="1">
+        <v>64004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>134217728</v>
       </c>
@@ -2779,8 +3116,11 @@
       <c r="D28" s="1">
         <v>128007</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="1">
+        <v>136008</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>268435456</v>
       </c>
@@ -2793,8 +3133,11 @@
       <c r="D29" s="1">
         <v>253014</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="1">
+        <v>253014</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>536870912</v>
       </c>
@@ -2806,6 +3149,9 @@
       </c>
       <c r="D30" s="1">
         <v>510029</v>
+      </c>
+      <c r="E30" s="1">
+        <v>527030</v>
       </c>
     </row>
   </sheetData>
